--- a/DEV/access details.xlsx
+++ b/DEV/access details.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
     <author>Sivakumar D1</author>
   </authors>
   <commentList>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sivakumar D1:</t>
         </r>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Yet to check</t>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="246">
   <si>
     <t xml:space="preserve">Principal </t>
   </si>
@@ -664,12 +664,6 @@
   </si>
   <si>
     <t>insert into table tech_cmplnc_rfnry.lgl_matr_base values();</t>
-  </si>
-  <si>
-    <t>insert into table lgl_matr.lgl_matr_base values();</t>
-  </si>
-  <si>
-    <t>insert into table lgl_matr.lgl_matr_raw values();</t>
   </si>
   <si>
     <t>insert into table qlty_3mis_tran.gnrl_tsk_frc_clm_base values();</t>
@@ -764,6 +758,51 @@
   </si>
   <si>
     <t>insert into table lgl_iir.incdnt_ivstgn_trd_raw values("F82260",18,"SpeedControl","x987731","15:15.8");</t>
+  </si>
+  <si>
+    <t>insert into table lgl_matr.lgl_matr_base values("123260","Warranty Claims","12113","3N1AB7AP3DL691846","2013","NISSAN","10","TX","Texas","","","","","USA","","","2016040404","Y","","","","-3","NISSAN","SEN","2013","3N1AB7AP3DL691846","TX","","","","","U","U","SENTRA SV","2013 SENTRA SV","2WD","SV","","B17","","MRA8","CVT","CVT","DNSXV01.8G1A","PowerTrain","2020-07-16 20:43:36.997268","x987731");</t>
+  </si>
+  <si>
+    <t>insert into table lgl_matr.lgl_matr_raw values("123260","Warranty Claims","12113","3N1AB7AP3DL691846","2013","NISSAN","10","TX","Texas","","","","","USA","","","2016040404","Y","","","","-3","NISSAN","SEN","2013","3N1AB7AP3DL691846","TX","","","","","U","U","SENTRA SV","2013 SENTRA SV","2WD","SV","","B17","","MRA8","CVT","CVT","DNSXV01.8G1A","PowerTrain","2020-07-16 20:43:36.997268","x987731");</t>
+  </si>
+  <si>
+    <t>TECH_CMPLNC_RFNRY.gnrl_tsk_frc_clm_base</t>
+  </si>
+  <si>
+    <t>TECH_CMPLNC_RFNRY.incdnt_ivstgn_trd_base</t>
+  </si>
+  <si>
+    <t>TECH_CMPLNC_RFNRY.lgl_matr_base</t>
+  </si>
+  <si>
+    <t>LGL_IIR.incdnt_ivstgn_base</t>
+  </si>
+  <si>
+    <t>LGL_IIR.incdnt_ivstgn_raw</t>
+  </si>
+  <si>
+    <t>LGL_IIR.incdnt_ivstgn_trd_base</t>
+  </si>
+  <si>
+    <t>LGL_IIR.incdnt_ivstgn_trd_raw</t>
+  </si>
+  <si>
+    <t>LGL_MATR.lgl_matr_base</t>
+  </si>
+  <si>
+    <t>LGL_MATR.lgl_matr_raw</t>
+  </si>
+  <si>
+    <t>QLTY_3MIS_TRAN.gnrl_tsk_frc_clm_base</t>
+  </si>
+  <si>
+    <t>QLTY_3MIS_TRAN.gnrl_tsk_frc_clm_raw</t>
+  </si>
+  <si>
+    <t>CSTMR_QLTY_TRAN_RFNRY.gnrl_tsk_frc_clm_base</t>
+  </si>
+  <si>
+    <t>warranty_rfnry.NA</t>
   </si>
 </sst>
 </file>
@@ -822,14 +861,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1567,23 +1606,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1593,23 +1633,24 @@
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>191</v>
       </c>
@@ -1619,23 +1660,26 @@
       <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>229</v>
+      <c r="D2" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>191</v>
       </c>
@@ -1645,21 +1689,24 @@
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>177</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>191</v>
       </c>
@@ -1669,21 +1716,24 @@
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>178</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>191</v>
       </c>
@@ -1694,19 +1744,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1716,21 +1769,24 @@
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1740,21 +1796,24 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>191</v>
       </c>
@@ -1765,19 +1824,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1787,21 +1849,24 @@
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -1811,21 +1876,24 @@
       <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>191</v>
       </c>
@@ -1836,19 +1904,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -1858,21 +1929,24 @@
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1882,21 +1956,24 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -1906,23 +1983,26 @@
       <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -1932,18 +2012,21 @@
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1953,23 +2036,26 @@
       <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>194</v>
       </c>
@@ -1979,21 +2065,24 @@
       <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>187</v>
       </c>
-      <c r="H17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>194</v>
       </c>
@@ -2001,14 +2090,17 @@
         <v>21</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2529,7 +2621,7 @@
         <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
@@ -2559,19 +2651,19 @@
         <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S4" t="s">
         <v>142</v>
       </c>
       <c r="T4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -2604,7 +2696,7 @@
         <v>146</v>
       </c>
       <c r="AJ4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK4" t="s">
         <v>148</v>
@@ -2613,13 +2705,13 @@
         <v>134</v>
       </c>
       <c r="AM4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AP4" t="s">
         <v>134</v>
       </c>
       <c r="AQ4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AR4" t="s">
         <v>152</v>
@@ -2643,16 +2735,16 @@
         <v>152</v>
       </c>
       <c r="AY4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD4" t="s">
         <v>211</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>213</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2676,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="BR4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BS4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BT4" t="s">
         <v>135</v>
@@ -2691,10 +2783,10 @@
         <v>160</v>
       </c>
       <c r="BW4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BY4">
         <v>2008</v>
@@ -2709,7 +2801,7 @@
         <v>133</v>
       </c>
       <c r="CC4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="CD4">
         <v>2008</v>
@@ -2718,7 +2810,7 @@
         <v>165</v>
       </c>
       <c r="CF4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="CH4" t="s">
         <v>167</v>
@@ -2747,7 +2839,7 @@
         <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
@@ -2777,19 +2869,19 @@
         <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S5" t="s">
         <v>142</v>
       </c>
       <c r="T5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -2822,7 +2914,7 @@
         <v>146</v>
       </c>
       <c r="AJ5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK5" t="s">
         <v>148</v>
@@ -2831,13 +2923,13 @@
         <v>134</v>
       </c>
       <c r="AM5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AP5" t="s">
         <v>134</v>
       </c>
       <c r="AQ5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AR5" t="s">
         <v>152</v>
@@ -2861,16 +2953,16 @@
         <v>152</v>
       </c>
       <c r="AY5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD5" t="s">
         <v>211</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>213</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2879,10 +2971,10 @@
         <v>134</v>
       </c>
       <c r="BL5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BM5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BO5">
         <v>0</v>
@@ -2897,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="BS5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BT5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BU5" t="s">
         <v>135</v>
@@ -2912,10 +3004,10 @@
         <v>160</v>
       </c>
       <c r="BX5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BY5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ5">
         <v>2008</v>
@@ -2930,7 +3022,7 @@
         <v>133</v>
       </c>
       <c r="CD5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="CE5">
         <v>2008</v>
@@ -2939,7 +3031,7 @@
         <v>165</v>
       </c>
       <c r="CG5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="CI5" t="s">
         <v>167</v>
@@ -2965,13 +3057,13 @@
     </row>
     <row r="8" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
